--- a/patient_data/patient_47.xlsx
+++ b/patient_data/patient_47.xlsx
@@ -649,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -726,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -880,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1155,31 +1155,31 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1232,16 +1232,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -1380,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1608,16 +1608,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
